--- a/Power/Full10000.xlsx
+++ b/Power/Full10000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,327 +442,347 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14.30727481842041</v>
+        <v>1052.745727539062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>119100.3046875</v>
+        <v>12407.5595703125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90060.8359375</v>
+        <v>21590.033203125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>137810.53125</v>
+        <v>40462.88671875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>140996.875</v>
+        <v>47262.29296875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>176454.0625</v>
+        <v>55567.96484375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>102799.9140625</v>
+        <v>65615.4296875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74848.6796875</v>
+        <v>89607.7265625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87434.6328125</v>
+        <v>101289.3984375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83895.4609375</v>
+        <v>100351.875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>83508.40625</v>
+        <v>71273.6640625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>281038.75</v>
+        <v>39045.24609375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>70417</v>
+        <v>6526.80712890625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>144728.46875</v>
+        <v>63760.02734375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>71041.2890625</v>
+        <v>2031.147094726562</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107285.296875</v>
+        <v>37300.88671875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8366.5888671875</v>
+        <v>69052.6484375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50686.43359375</v>
+        <v>55886.10546875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>133575.828125</v>
+        <v>45507.74609375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>296396.4375</v>
+        <v>73801.9296875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22382.345703125</v>
+        <v>5810.43212890625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>157286.859375</v>
+        <v>62747.57421875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>84553.6640625</v>
+        <v>81431.2890625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15996.6767578125</v>
+        <v>84421.6484375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>281904.90625</v>
+        <v>63407.74609375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>35583.91796875</v>
+        <v>3075.182373046875</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34134.05078125</v>
+        <v>61625.43359375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44710.24609375</v>
+        <v>44256.55859375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>194950.4375</v>
+        <v>29287.939453125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9925.5966796875</v>
+        <v>59647.46484375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>45204.45703125</v>
+        <v>55863.35546875</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5712.74462890625</v>
+        <v>86938.859375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>73245.5234375</v>
+        <v>57020.62109375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10939.0263671875</v>
+        <v>109347.4921875</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>276255.5625</v>
+        <v>81926.2265625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>110489.3046875</v>
+        <v>2788.225341796875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>125271.4921875</v>
+        <v>39394.50390625</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17628.44140625</v>
+        <v>55592.93359375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>146131.9375</v>
+        <v>68053.2265625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>144189.40625</v>
+        <v>87148.3203125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>265382.875</v>
+        <v>133978.6875</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>279212.0625</v>
+        <v>2564.358154296875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>107430.9765625</v>
+        <v>58986.44921875</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>176454.0625</v>
+        <v>20910.427734375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7422.27587890625</v>
+        <v>51889.21484375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>50753.99609375</v>
+        <v>46338.16796875</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20442.041015625</v>
+        <v>66783.4140625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7589.15869140625</v>
+        <v>71530.6171875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>53309.32421875</v>
+        <v>55231.33984375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>134453.015625</v>
+        <v>68749.8359375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10588.9794921875</v>
+        <v>87173.4921875</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11256.5107421875</v>
+        <v>108401.890625</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>51340.83984375</v>
+        <v>113940.140625</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9742.3544921875</v>
+        <v>124625.3203125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5395.26025390625</v>
+        <v>87998.1015625</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>77359.9765625</v>
+        <v>50575.08984375</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>102928.609375</v>
+        <v>51933.91796875</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8610.8076171875</v>
+        <v>53069.02734375</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31903.025390625</v>
+        <v>80529.7734375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>83428.1171875</v>
+        <v>75914.6484375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7988.04931640625</v>
+        <v>92329.3515625</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67148.3515625</v>
+        <v>102383.84375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>13466.052734375</v>
+        <v>113539.8125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>41147.62109375</v>
+        <v>126727.9609375</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65386.93359375</v>
+        <v>62825.69921875</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63304.60546875</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>78363.0078125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>96411.46875</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55690.60546875</v>
       </c>
     </row>
   </sheetData>
